--- a/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Wintage.xlsx
+++ b/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Wintage.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Downloads\SSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\datasets\Stability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA38297-9205-4550-B406-2FD6A59C7929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E70EBC5-F47E-4332-AD75-02A042AA8E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windage " sheetId="1" r:id="rId1"/>
-    <sheet name="Horizontal surf" sheetId="2" r:id="rId2"/>
+    <sheet name="Windage X" sheetId="3" r:id="rId2"/>
+    <sheet name="Horizontal surf" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>d [m]</t>
   </si>
@@ -119,6 +120,36 @@
   </si>
   <si>
     <t>Crane fore</t>
+  </si>
+  <si>
+    <t>Выхлопная труба</t>
+  </si>
+  <si>
+    <t>Рубка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кран кормовой </t>
+  </si>
+  <si>
+    <t>Кран носовой</t>
+  </si>
+  <si>
+    <t>Area [m2]</t>
+  </si>
+  <si>
+    <t>Крышки и комингс кормового трюма</t>
+  </si>
+  <si>
+    <t>Крышки и комингс носового трюма</t>
+  </si>
+  <si>
+    <t>Ют</t>
+  </si>
+  <si>
+    <t>Бак</t>
+  </si>
+  <si>
+    <t>Надводный борт (выше 2,001)</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1245,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E36415-DD44-4569-AFFE-7A106D5E9833}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Wintage.xlsx
+++ b/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Wintage.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\datasets\Stability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nas\Sophy\SSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E70EBC5-F47E-4332-AD75-02A042AA8E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Windage " sheetId="1" r:id="rId1"/>
     <sheet name="Windage X" sheetId="3" r:id="rId2"/>
     <sheet name="Horizontal surf" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -128,34 +127,34 @@
     <t>Рубка</t>
   </si>
   <si>
-    <t xml:space="preserve">Кран кормовой </t>
+    <t>Area [m2]</t>
+  </si>
+  <si>
+    <t>Крышки и комингс кормового трюма</t>
+  </si>
+  <si>
+    <t>Крышки и комингс носового трюма</t>
+  </si>
+  <si>
+    <t>Ют</t>
+  </si>
+  <si>
+    <t>Бак</t>
+  </si>
+  <si>
+    <t>Надводный борт (выше 2,001)</t>
+  </si>
+  <si>
+    <t>Кран кормовой</t>
   </si>
   <si>
     <t>Кран носовой</t>
-  </si>
-  <si>
-    <t>Area [m2]</t>
-  </si>
-  <si>
-    <t>Крышки и комингс кормового трюма</t>
-  </si>
-  <si>
-    <t>Крышки и комингс носового трюма</t>
-  </si>
-  <si>
-    <t>Ют</t>
-  </si>
-  <si>
-    <t>Бак</t>
-  </si>
-  <si>
-    <t>Надводный борт (выше 2,001)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -193,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +218,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,11 +1247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E36415-DD44-4569-AFFE-7A106D5E9833}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1263,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>14</v>
@@ -1274,46 +1276,130 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
+      <c r="B2" s="13">
+        <v>38.762</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
+      <c r="B3" s="13">
+        <v>63.338999999999999</v>
+      </c>
+      <c r="C3" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="D3" s="13">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="13">
+        <v>78.335999999999999</v>
+      </c>
+      <c r="C4" s="13">
+        <v>13.77</v>
+      </c>
+      <c r="D4" s="13">
+        <v>44.97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="13">
+        <v>78.335999999999999</v>
+      </c>
+      <c r="C5" s="13">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="D5" s="13">
+        <v>96.77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="B6" s="13">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="C6" s="13">
+        <v>18.18</v>
+      </c>
+      <c r="D6" s="13">
+        <v>71.540000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B7" s="13">
+        <v>28.792000000000002</v>
+      </c>
+      <c r="C7" s="13">
+        <v>72.98</v>
+      </c>
+      <c r="D7" s="13">
+        <v>120.18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B8" s="13">
+        <v>43.420999999999999</v>
+      </c>
+      <c r="C8" s="13">
+        <v>-3.57</v>
+      </c>
+      <c r="D8" s="13">
+        <v>10.9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="13">
+        <v>38.326999999999998</v>
+      </c>
+      <c r="C9" s="13">
+        <v>119.98</v>
+      </c>
+      <c r="D9" s="13">
+        <v>134.47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1238.893</v>
+      </c>
+      <c r="C10" s="13">
+        <v>-3.57</v>
+      </c>
+      <c r="D10" s="13">
+        <v>134.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1321,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Wintage.xlsx
+++ b/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Wintage.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nas\Sophy\SSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\datasets\Stability\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF217D5-0075-41C0-8F89-FDDE7AF63B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="34635" yWindow="4560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windage " sheetId="1" r:id="rId1"/>
     <sheet name="Windage X" sheetId="3" r:id="rId2"/>
     <sheet name="Horizontal surf" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -154,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -192,17 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,27 +521,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="6" customWidth="1"/>
-    <col min="3" max="4" width="11" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
+    <col min="3" max="4" width="11" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="30" width="9" style="2" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="14.5703125" style="2"/>
+    <col min="11" max="29" width="9" style="2" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="14.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -579,667 +576,583 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>0.505</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>127.889</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>15.87</v>
       </c>
-      <c r="E2" s="1">
-        <v>1791.886</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="4">
+        <v>1712.7179523809523</v>
+      </c>
+      <c r="F2" s="7">
         <v>61.44</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <f t="shared" ref="G2:G18" si="0">F2*E2</f>
-        <v>110093.47584</v>
-      </c>
-      <c r="H2" s="8">
-        <v>8.8490000000000002</v>
-      </c>
-      <c r="I2" s="1">
-        <v>15856.399213999999</v>
-      </c>
-      <c r="J2" s="9">
+        <v>105229.3909942857</v>
+      </c>
+      <c r="H2" s="6">
+        <f>I2/E2</f>
+        <v>8.4266756677224564</v>
+      </c>
+      <c r="I2" s="4">
+        <v>14432.518694999999</v>
+      </c>
+      <c r="J2" s="7">
         <v>233.994</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1.5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>0.75900000000000001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>129.54400000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>15.87</v>
       </c>
-      <c r="E3" s="1">
-        <v>1727.568</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="4">
+        <v>1648.3999523809523</v>
+      </c>
+      <c r="F3" s="7">
         <v>61.213999999999999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>105751.34755199999</v>
-      </c>
-      <c r="H3" s="8">
-        <v>9.1319999999999997</v>
-      </c>
-      <c r="I3" s="1">
-        <v>15776.150976000001</v>
-      </c>
-      <c r="J3" s="9">
+        <v>100905.15468504762</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H18" si="1">I3/E3</f>
+        <v>8.7067889296341896</v>
+      </c>
+      <c r="I3" s="4">
+        <v>14352.270457000001</v>
+      </c>
+      <c r="J3" s="7">
         <v>223.83099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>1.0129999999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>130.67699999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>15.87</v>
       </c>
-      <c r="E4" s="1">
-        <v>1662.529</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="4">
+        <v>1583.3609523809523</v>
+      </c>
+      <c r="F4" s="7">
         <v>60.965000000000003</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>101356.080485</v>
-      </c>
-      <c r="H4" s="8">
-        <v>9.4209999999999994</v>
-      </c>
-      <c r="I4" s="1">
-        <v>15662.685708999999</v>
-      </c>
-      <c r="J4" s="9">
+        <v>96529.60046190476</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
+        <v>8.9927727272727278</v>
+      </c>
+      <c r="I4" s="4">
+        <v>14238.805189999999</v>
+      </c>
+      <c r="J4" s="7">
         <v>213.66900000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>2.5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>1.2669999999999999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>131.07400000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>15.87</v>
       </c>
-      <c r="E5" s="1">
-        <v>1597.0809999999999</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="4">
+        <v>1517.9129523809522</v>
+      </c>
+      <c r="F5" s="7">
         <v>60.686</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>96920.457565999997</v>
-      </c>
-      <c r="H5" s="8">
-        <v>9.7140000000000004</v>
-      </c>
-      <c r="I5" s="1">
-        <v>15514.044834</v>
-      </c>
-      <c r="J5" s="9">
+        <v>92116.065428190472</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>9.2825904758890125</v>
+      </c>
+      <c r="I5" s="4">
+        <v>14090.164315</v>
+      </c>
+      <c r="J5" s="7">
         <v>203.506</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>1.5189999999999999</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>130.858</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>15.87</v>
       </c>
-      <c r="E6" s="1">
-        <v>1531.6</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="4">
+        <v>1452.4319523809522</v>
+      </c>
+      <c r="F6" s="7">
         <v>60.366</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>92456.565599999987</v>
-      </c>
-      <c r="H6" s="8">
-        <v>10.012</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15334.379199999999</v>
-      </c>
-      <c r="J6" s="9">
+        <v>87677.507237428566</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>9.5773840958240459</v>
+      </c>
+      <c r="I6" s="4">
+        <v>13910.498680999999</v>
+      </c>
+      <c r="J6" s="7">
         <v>193.34399999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>3.5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>1.77</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>130.428</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>15.87</v>
       </c>
-      <c r="E7" s="1">
-        <v>1466.2819999999999</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="4">
+        <v>1387.1139523809522</v>
+      </c>
+      <c r="F7" s="7">
         <v>60</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>87976.92</v>
-      </c>
-      <c r="H7" s="8">
-        <v>10.313000000000001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>15121.766266000001</v>
-      </c>
-      <c r="J7" s="9">
+        <v>83226.837142857141</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>9.8750976612180015</v>
+      </c>
+      <c r="I7" s="4">
+        <v>13697.885747</v>
+      </c>
+      <c r="J7" s="7">
         <v>183.18100000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>2.02</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>130.126</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>15.87</v>
       </c>
-      <c r="E8" s="1">
-        <v>1401.1289999999999</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="4">
+        <v>1321.9609523809522</v>
+      </c>
+      <c r="F8" s="7">
         <v>59.597000000000001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>83503.085012999989</v>
-      </c>
-      <c r="H8" s="8">
-        <v>10.619</v>
-      </c>
-      <c r="I8" s="1">
-        <v>14878.588851</v>
-      </c>
-      <c r="J8" s="9">
+        <v>78784.906879047616</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>10.177840962523929</v>
+      </c>
+      <c r="I8" s="4">
+        <v>13454.708332</v>
+      </c>
+      <c r="J8" s="7">
         <v>173.01900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>4.5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>2.27</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>129.869</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>15.87</v>
       </c>
-      <c r="E9" s="1">
-        <v>1336.114</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="4">
+        <v>1256.9459523809523</v>
+      </c>
+      <c r="F9" s="7">
         <v>59.155999999999999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>79039.159784000003</v>
-      </c>
-      <c r="H9" s="8">
-        <v>10.928000000000001</v>
-      </c>
-      <c r="I9" s="1">
-        <v>14601.053792000001</v>
-      </c>
-      <c r="J9" s="9">
+        <v>74355.894759047616</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>10.483484391703019</v>
+      </c>
+      <c r="I9" s="4">
+        <v>13177.173273</v>
+      </c>
+      <c r="J9" s="7">
         <v>162.85599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>2.5190000000000001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>129.67500000000001</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>15.87</v>
       </c>
-      <c r="E10" s="1">
-        <v>1271.242</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="4">
+        <v>1192.0739523809523</v>
+      </c>
+      <c r="F10" s="7">
         <v>58.686</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>74604.108011999997</v>
-      </c>
-      <c r="H10" s="8">
-        <v>11.244</v>
-      </c>
-      <c r="I10" s="1">
-        <v>14293.845047999999</v>
-      </c>
-      <c r="J10" s="9">
+        <v>69958.051969428561</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>10.796280300642902</v>
+      </c>
+      <c r="I10" s="4">
+        <v>12869.964528999999</v>
+      </c>
+      <c r="J10" s="7">
         <v>152.69399999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>5.5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>2.7690000000000001</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>130.16200000000001</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>15.87</v>
       </c>
-      <c r="E11" s="1">
-        <v>1206.4010000000001</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="4">
+        <v>1127.2329523809524</v>
+      </c>
+      <c r="F11" s="7">
         <v>58.207999999999998</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>70222.189408000006</v>
-      </c>
-      <c r="H11" s="8">
-        <v>11.566000000000001</v>
-      </c>
-      <c r="I11" s="1">
-        <v>13953.233966</v>
-      </c>
-      <c r="J11" s="9">
+        <v>65613.975692190477</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>11.115141214187695</v>
+      </c>
+      <c r="I11" s="4">
+        <v>12529.353447</v>
+      </c>
+      <c r="J11" s="7">
         <v>142.53100000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>3.02</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>131.41999999999999</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>15.87</v>
       </c>
-      <c r="E12" s="1">
-        <v>1141.01</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="4">
+        <v>1061.8419523809523</v>
+      </c>
+      <c r="F12" s="7">
         <v>57.76</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>65904.737599999993</v>
-      </c>
-      <c r="H12" s="8">
-        <v>11.898999999999999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>13576.877990000001</v>
-      </c>
-      <c r="J12" s="9">
+        <v>61331.991169523804</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>11.445203727117313</v>
+      </c>
+      <c r="I12" s="4">
+        <v>12152.997471000001</v>
+      </c>
+      <c r="J12" s="7">
         <v>132.369</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>6.5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>3.274</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>133.29</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>15.87</v>
       </c>
-      <c r="E13" s="1">
-        <v>1074.8679999999999</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="4">
+        <v>995.69995238095225</v>
+      </c>
+      <c r="F13" s="7">
         <v>57.534999999999997</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>61842.530379999989</v>
-      </c>
-      <c r="H13" s="8">
-        <v>12.247</v>
-      </c>
-      <c r="I13" s="1">
-        <v>13163.908396000001</v>
-      </c>
-      <c r="J13" s="9">
+        <v>57287.596760238084</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>11.790728571319942</v>
+      </c>
+      <c r="I13" s="4">
+        <v>11740.027877</v>
+      </c>
+      <c r="J13" s="7">
         <v>122.22499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>3.53</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>133.52799999999999</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>15.87</v>
       </c>
-      <c r="E14" s="1">
-        <v>1008.139</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="4">
+        <v>928.97095238095244</v>
+      </c>
+      <c r="F14" s="7">
         <v>56.942</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>57405.450938000002</v>
-      </c>
-      <c r="H14" s="8">
-        <v>12.611000000000001</v>
-      </c>
-      <c r="I14" s="1">
-        <v>12713.640928999999</v>
-      </c>
-      <c r="J14" s="9">
+        <v>52897.463970476194</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>12.152974623226211</v>
+      </c>
+      <c r="I14" s="4">
+        <v>11289.760409999999</v>
+      </c>
+      <c r="J14" s="7">
         <v>112.15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>7.5</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>3.7850000000000001</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>133.85499999999999</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>15.87</v>
       </c>
-      <c r="E15" s="1">
-        <v>941.29700000000003</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="4">
+        <v>862.12895238095234</v>
+      </c>
+      <c r="F15" s="7">
         <v>56.466999999999999</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>53152.217699000001</v>
-      </c>
-      <c r="H15" s="8">
-        <v>12.991</v>
-      </c>
-      <c r="I15" s="1">
-        <v>12228.389327000001</v>
-      </c>
-      <c r="J15" s="9">
+        <v>48681.835554095233</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>12.532358156121603</v>
+      </c>
+      <c r="I15" s="4">
+        <v>10804.508808</v>
+      </c>
+      <c r="J15" s="7">
         <v>101.999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>8</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>4.04</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>134.255</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>15.87</v>
       </c>
-      <c r="E16" s="1">
-        <v>874.27099999999996</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="4">
+        <v>795.10295238095227</v>
+      </c>
+      <c r="F16" s="7">
         <v>55.905999999999999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>48876.994525999995</v>
-      </c>
-      <c r="H16" s="8">
-        <v>13.393000000000001</v>
-      </c>
-      <c r="I16" s="1">
-        <v>11709.111503</v>
-      </c>
-      <c r="J16" s="9">
+        <v>44451.025655809513</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>12.935722290051448</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10285.230984</v>
+      </c>
+      <c r="J16" s="7">
         <v>91.837000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>8.5</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>4.2949999999999999</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>134.65600000000001</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>15.87</v>
       </c>
-      <c r="E17" s="1">
-        <v>807.04399999999998</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="4">
+        <v>727.87595238095241</v>
+      </c>
+      <c r="F17" s="7">
         <v>55.238999999999997</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
-        <v>44580.303516</v>
-      </c>
-      <c r="H17" s="8">
-        <v>13.821</v>
-      </c>
-      <c r="I17" s="1">
-        <v>11154.155124000001</v>
-      </c>
-      <c r="J17" s="9">
+        <v>40207.139733571428</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>13.368039668258492</v>
+      </c>
+      <c r="I17" s="4">
+        <v>9730.2746050000005</v>
+      </c>
+      <c r="J17" s="7">
         <v>81.674000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>9</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>4.55</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>135.05699999999999</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>15.87</v>
       </c>
-      <c r="E18" s="1">
-        <v>739.61699999999996</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="4">
+        <v>660.44895238095228</v>
+      </c>
+      <c r="F18" s="7">
         <v>54.436999999999998</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>40262.530628999993</v>
-      </c>
-      <c r="H18" s="8">
-        <v>14.284000000000001</v>
-      </c>
-      <c r="I18" s="1">
-        <v>10564.689227999999</v>
-      </c>
-      <c r="J18" s="9">
+        <v>35952.859620761898</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>13.840295568714154</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9140.808708999999</v>
+      </c>
+      <c r="J18" s="7">
         <v>71.512</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1247,28 +1160,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="11"/>
+    <col min="2" max="2" width="12.5703125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1276,13 +1189,13 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>38.762</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>3.6</v>
       </c>
     </row>
@@ -1290,13 +1203,13 @@
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>63.338999999999999</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>4.8</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>10.9</v>
       </c>
     </row>
@@ -1304,13 +1217,13 @@
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>78.335999999999999</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>13.77</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>44.97</v>
       </c>
     </row>
@@ -1318,13 +1231,13 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>78.335999999999999</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>65.569999999999993</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>96.77</v>
       </c>
     </row>
@@ -1332,13 +1245,13 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>32.549999999999997</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>18.18</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>71.540000000000006</v>
       </c>
     </row>
@@ -1346,13 +1259,13 @@
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>28.792000000000002</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>72.98</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>120.18</v>
       </c>
     </row>
@@ -1360,13 +1273,13 @@
       <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>43.420999999999999</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>-3.57</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>10.9</v>
       </c>
     </row>
@@ -1374,13 +1287,13 @@
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>38.326999999999998</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>119.98</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>134.47</v>
       </c>
     </row>
@@ -1388,18 +1301,18 @@
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>1238.893</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>-3.57</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>134.47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
+      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1407,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1420,22 +1333,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1443,22 +1356,22 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>204</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>11.6</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>5.5</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>0</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>-3.57</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>10.9</v>
       </c>
     </row>
@@ -1466,22 +1379,22 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>12</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>15</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>3</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>3.5</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>0.6</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>3.9</v>
       </c>
     </row>
@@ -1489,22 +1402,22 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>16</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>15</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>7.5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>-6</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>4.8</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>10.9</v>
       </c>
     </row>
@@ -1512,22 +1425,22 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>60</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>25.5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>8.5</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>4.8</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>10.9</v>
       </c>
     </row>
@@ -1535,22 +1448,22 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>22</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>2.4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>3.6</v>
       </c>
     </row>
@@ -1558,22 +1471,22 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>175</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>15</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>10.9</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -1581,22 +1494,22 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>250</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>11.2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>66</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>25.26</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>119.98</v>
       </c>
     </row>
@@ -1604,22 +1517,22 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>29</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>12</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>72.5</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>71.14</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>73.36</v>
       </c>
     </row>
@@ -1627,22 +1540,22 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>40</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>11.2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>121</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>119.98</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>122.94</v>
       </c>
     </row>
@@ -1650,22 +1563,22 @@
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>140</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>15</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>126.5</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>120.72</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>134.47</v>
       </c>
     </row>
@@ -1673,22 +1586,22 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>1230</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>12.5</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>72.5</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>18.600000000000001</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>119.98</v>
       </c>
     </row>
@@ -1696,22 +1609,22 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>35</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>20.5</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>29</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>-5.5</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>40.340000000000003</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>46.46</v>
       </c>
     </row>
@@ -1719,27 +1632,27 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>35</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>20.5</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>70</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>-5.5</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>92.14</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>98.26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="10"/>
+      <c r="C15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
